--- a/ledger.xlsx
+++ b/ledger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>日期</t>
   </si>
@@ -50,7 +50,10 @@
     <t>1.学习《高性能 FastAPI 框架入门精讲》第2.6节。2.学习FastAPI官方文档——完成“Path Parameters”到“Query Parameters”部分。</t>
   </si>
   <si>
-    <t>1.学习FastAPI官方文档——完成“Request Body”到“Query Parameters and String Validations”部分。学习《高性能 FastAPI 框架入门精讲》p8-p10</t>
+    <t>1.学习FastAPI官方文档——完成“Request Body”到“Query Parameters and String Validations”部分。2.学习《高性能 FastAPI 框架入门精讲》p8-p10</t>
+  </si>
+  <si>
+    <t>1.学习《高性能 FastAPI 框架入门精讲》p11-p13</t>
   </si>
 </sst>
 </file>
@@ -61,8 +64,8 @@
     <numFmt numFmtId="176" formatCode="m/d;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -73,16 +76,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,14 +100,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -113,43 +131,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,53 +146,75 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,25 +229,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,157 +409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,8 +506,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,8 +515,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,148 +525,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1005,7 +1008,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
@@ -1076,9 +1079,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>44641</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:1">

--- a/ledger.xlsx
+++ b/ledger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>日期</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>1.学习《高性能 FastAPI 框架入门精讲》p11-p13</t>
+  </si>
+  <si>
+    <t>1.学习《高性能 FastAPI 框架入门精讲》p14-p15</t>
+  </si>
+  <si>
+    <t>1.学习FastAPI官方文档——完成“Path Parameters and Numeric Validations”到“Response Status Code”部分。</t>
   </si>
 </sst>
 </file>
@@ -61,11 +67,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -76,6 +82,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -83,9 +97,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,23 +128,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,6 +159,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -137,7 +175,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -146,7 +192,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,16 +205,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,40 +219,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,67 +235,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,115 +373,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,6 +454,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -458,21 +479,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,148 +531,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -677,7 +683,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1008,7 +1014,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
@@ -1087,9 +1093,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>44642</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:1">

--- a/ledger.xlsx
+++ b/ledger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>日期</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>1.学习FastAPI官方文档——完成“Path Parameters and Numeric Validations”到“Response Status Code”部分。</t>
+  </si>
+  <si>
+    <t>1.学习FastAPI官方文档——完成“Form Data”到“Handling Errors”部分。</t>
   </si>
 </sst>
 </file>
@@ -67,11 +70,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -82,39 +85,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,25 +102,100 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,54 +207,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,187 +238,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,17 +456,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,11 +506,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,148 +534,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -683,7 +686,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1014,7 +1017,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
@@ -1104,9 +1107,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>44643</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:1">

--- a/ledger.xlsx
+++ b/ledger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>日期</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>1.学习FastAPI官方文档——完成“Form Data”到“Handling Errors”部分。</t>
+  </si>
+  <si>
+    <t>HTTPException</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1020,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
@@ -1107,12 +1110,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>44643</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:1">

--- a/ledger.xlsx
+++ b/ledger.xlsx
@@ -65,7 +65,7 @@
     <t>1.学习FastAPI官方文档——完成“Form Data”到“Handling Errors”部分。</t>
   </si>
   <si>
-    <t>HTTPException</t>
+    <t>HTTPException,JSONResponse</t>
   </si>
 </sst>
 </file>

--- a/ledger.xlsx
+++ b/ledger.xlsx
@@ -65,7 +65,7 @@
     <t>1.学习FastAPI官方文档——完成“Form Data”到“Handling Errors”部分。</t>
   </si>
   <si>
-    <t>HTTPException,JSONResponse</t>
+    <t>HTTPException</t>
   </si>
 </sst>
 </file>

--- a/ledger.xlsx
+++ b/ledger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>日期</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>HTTPException</t>
+  </si>
+  <si>
+    <t>1.学习FastAPI官方文档——完成“Path Operation Configuration”到“Dependencies”部分。</t>
   </si>
 </sst>
 </file>
@@ -76,8 +79,8 @@
     <numFmt numFmtId="176" formatCode="m/d;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -88,9 +91,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,11 +152,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,74 +190,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,30 +213,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,25 +244,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,157 +412,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,30 +435,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,27 +462,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -524,6 +486,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -532,153 +509,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1020,7 +1023,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
@@ -1121,9 +1124,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>44644</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:1">

--- a/ledger.xlsx
+++ b/ledger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>日期</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>1.学习FastAPI官方文档——完成“Path Operation Configuration”到“Dependencies”部分。</t>
+  </si>
+  <si>
+    <t>1.学习FastAPI官方文档——完成“Dependencies - First Steps”。</t>
   </si>
 </sst>
 </file>
@@ -76,11 +79,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -100,7 +103,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,6 +216,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -121,115 +224,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,187 +247,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,7 +445,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,26 +489,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,15 +521,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -521,17 +530,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,142 +543,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,7 +695,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1023,7 +1026,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
@@ -1132,9 +1135,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>44645</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:1">

--- a/ledger.xlsx
+++ b/ledger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>日期</t>
   </si>
@@ -29,22 +29,16 @@
 (1)tornado.httpserver</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>学习《高性能 FastAPI 框架入门精讲》</t>
   </si>
   <si>
-    <t>完成1.1-2.6：Pydantic基础用法。</t>
-  </si>
-  <si>
-    <t>github: https://github.com/liaogx/fastapi-tutorial</t>
-  </si>
-  <si>
-    <t>视频地址：</t>
-  </si>
-  <si>
     <t>1.学习FastAPI官方文档——完成“FastAPI”到“First Step”部分。</t>
   </si>
   <si>
-    <t xml:space="preserve">1.Pydantic: https://pydantic-docs.helpmanual.io/ 2.starlette: </t>
+    <t xml:space="preserve">github: https://github.com/liaogx/fastapi-tutorial </t>
   </si>
   <si>
     <t>1.学习《高性能 FastAPI 框架入门精讲》第2.6节。2.学习FastAPI官方文档——完成“Path Parameters”到“Query Parameters”部分。</t>
@@ -59,19 +53,19 @@
     <t>1.学习《高性能 FastAPI 框架入门精讲》p14-p15</t>
   </si>
   <si>
-    <t>1.学习FastAPI官方文档——完成“Path Parameters and Numeric Validations”到“Response Status Code”部分。</t>
-  </si>
-  <si>
     <t>1.学习FastAPI官方文档——完成“Form Data”到“Handling Errors”部分。</t>
   </si>
   <si>
-    <t>HTTPException</t>
-  </si>
-  <si>
     <t>1.学习FastAPI官方文档——完成“Path Operation Configuration”到“Dependencies”部分。</t>
   </si>
   <si>
     <t>1.学习FastAPI官方文档——完成“Dependencies - First Steps”。</t>
+  </si>
+  <si>
+    <t>1.学习FastAPI官方文档——完成“Classes as Dependencies”。2.学习《高性能 FastAPI 框架入门精讲》p23-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.fastapi示例函数阅读到黄色背景部分即可。2.代码不完整，比如 "DBSession()"是指什么？（https://fastapi.tiangolo.com/tutorial/dependencies/dependencies-with-yield/）</t>
   </si>
 </sst>
 </file>
@@ -79,11 +73,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="m/d;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -102,17 +96,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,7 +121,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,9 +158,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,21 +167,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,7 +175,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,22 +183,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,23 +196,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,49 +241,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,133 +415,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,7 +439,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,22 +448,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,21 +468,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -515,6 +479,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,147 +517,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,7 +689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1023,13 +1017,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="8.8" style="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
@@ -1047,62 +1041,71 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="31.5" spans="1:2">
+    <row r="2" ht="31.5" spans="1:3">
       <c r="A2" s="2">
         <v>44637</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" ht="30.75" spans="1:5">
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="30.75" spans="1:3">
       <c r="A3" s="2">
         <v>44638</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>44639</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>44640</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>44641</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1110,10 +1113,10 @@
         <v>44642</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1121,36 +1124,51 @@
         <v>44643</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>44644</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="2">
         <v>44645</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>44646</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>44647</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:1">

--- a/ledger.xlsx
+++ b/ledger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>日期</t>
   </si>
@@ -62,10 +62,13 @@
     <t>1.学习FastAPI官方文档——完成“Dependencies - First Steps”。</t>
   </si>
   <si>
-    <t>1.学习FastAPI官方文档——完成“Classes as Dependencies”。2.学习《高性能 FastAPI 框架入门精讲》p23-</t>
+    <t>1.学习FastAPI官方文档——完成“Dependencies”。2.学习《高性能 FastAPI 框架入门精讲》p23-</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.fastapi示例函数阅读到黄色背景部分即可。2.代码不完整，比如 "DBSession()"是指什么？（https://fastapi.tiangolo.com/tutorial/dependencies/dependencies-with-yield/）</t>
+  </si>
+  <si>
+    <t>1.学习FastAPI官方文档——完成“Security”至“Debugging”。</t>
   </si>
 </sst>
 </file>
@@ -74,9 +77,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -88,19 +91,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -112,9 +121,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,6 +150,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -134,6 +166,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -142,9 +181,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,30 +197,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,37 +219,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,25 +244,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,25 +328,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,127 +424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,7 +442,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,7 +466,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,6 +501,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -500,185 +529,159 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1020,7 +1023,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="3"/>
@@ -1171,9 +1174,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>44648</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:1">

--- a/ledger.xlsx
+++ b/ledger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>日期</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>1.学习FastAPI官方文档——完成“Security”至“Debugging”。</t>
+  </si>
+  <si>
+    <t>1.学习FastAPI官方文档——完成“Advanced User Guide - Intro”至“Return a Response Directly”。2.《watchlist-fastapi》p3</t>
   </si>
 </sst>
 </file>
@@ -76,11 +79,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="m/d;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -93,21 +96,90 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,6 +193,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -128,54 +209,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,14 +223,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -205,31 +232,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,187 +247,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,15 +438,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -466,7 +460,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,6 +476,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,21 +521,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -535,153 +529,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -692,7 +695,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1023,7 +1026,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="3"/>
@@ -1182,9 +1185,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>44649</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:1">

--- a/ledger.xlsx
+++ b/ledger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>日期</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>1.学习FastAPI官方文档——完成“Advanced User Guide - Intro”至“Return a Response Directly”。2.《watchlist-fastapi》p3</t>
+  </si>
+  <si>
+    <t>1.学习FastAPI官方文档——完成“Custom Response - HTML, Stream, File, others”至“Response - Change Status Code”。</t>
   </si>
 </sst>
 </file>
@@ -79,11 +82,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -94,6 +97,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -103,16 +121,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -124,29 +150,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -155,16 +174,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -172,7 +190,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,6 +198,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,7 +220,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,29 +235,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,13 +250,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,169 +412,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,6 +468,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -476,21 +488,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,6 +518,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -529,162 +541,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -695,7 +698,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1026,7 +1029,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="3"/>
@@ -1193,9 +1196,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>44650</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:1">
